--- a/Ch1_Degradation_figures/seedbankgerm_plantcluster_summary_TABLE_2025AUG13.xlsx
+++ b/Ch1_Degradation_figures/seedbankgerm_plantcluster_summary_TABLE_2025AUG13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Library/CloudStorage/Dropbox/GRADSCHOOL/Dissertation/R_dissertation/chaparraldegradation_2022/chaparraldegradation_2022/Ch1_Degradation_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F460EBA8-B75A-7042-93E3-0C2CFF6AA0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85DF15-3C8B-4C48-AF74-E2C7C34BE036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50660" yWindow="-12660" windowWidth="51200" windowHeight="28300" xr2:uid="{DF73E7D2-7D55-B045-8177-4898CA5781D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{DF73E7D2-7D55-B045-8177-4898CA5781D7}"/>
   </bookViews>
   <sheets>
     <sheet name="seedbankgerm_plantcluster_summa" sheetId="1" r:id="rId1"/>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD09C77-1762-2549-BB40-1EE14740FF2D}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
